--- a/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>301964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>292919</v>
+        <v>292753</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308897</v>
+        <v>308647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9470544252252812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9186868654669177</v>
+        <v>0.9181656388557923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9687989688713217</v>
+        <v>0.9680171027646159</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>521</v>
@@ -762,19 +762,19 @@
         <v>306661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>301067</v>
+        <v>301094</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>310381</v>
+        <v>310340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9702586680472547</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.952560072425134</v>
+        <v>0.9526453427215376</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9820278418115097</v>
+        <v>0.9819006246885089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>833</v>
@@ -783,19 +783,19 @@
         <v>608624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>598491</v>
+        <v>598863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>616677</v>
+        <v>616459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9586056608147306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9426457312854285</v>
+        <v>0.9432305939727305</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9712893373837114</v>
+        <v>0.9709456949330881</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4127</v>
+        <v>5538</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.002620738923928386</v>
+        <v>0.002620738923928387</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01294505321564455</v>
+        <v>0.01737000313664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4315</v>
+        <v>3987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002760241811608083</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01365195725441488</v>
+        <v>0.01261331775449526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5954</v>
+        <v>5199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002690184444446329</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.00937706975749265</v>
+        <v>0.008188963830970786</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>16046</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9511</v>
+        <v>9367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25100</v>
+        <v>24752</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05032483585079045</v>
+        <v>0.05032483585079046</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02982985790271156</v>
+        <v>0.0293783327870777</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07872196905888751</v>
+        <v>0.07763102706447265</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -904,19 +904,19 @@
         <v>8528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5104</v>
+        <v>5118</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13310</v>
+        <v>13662</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02698109014113724</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01614779896910713</v>
+        <v>0.01619229123001867</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04211218390129789</v>
+        <v>0.04322603222167765</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -925,19 +925,19 @@
         <v>24574</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16812</v>
+        <v>17102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35005</v>
+        <v>34662</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03870415474082306</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02647998076248899</v>
+        <v>0.02693675036479941</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05513393866224436</v>
+        <v>0.05459365445750488</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>475331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454235</v>
+        <v>455254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490834</v>
+        <v>491439</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8980139057248685</v>
+        <v>0.8980139057248684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8581578785312148</v>
+        <v>0.8600836670384572</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9273017255496706</v>
+        <v>0.9284445379685453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>655</v>
@@ -1050,19 +1050,19 @@
         <v>496859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482247</v>
+        <v>480909</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>507935</v>
+        <v>508290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9101217363396492</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8833561169803467</v>
+        <v>0.8809057691894772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9304097378884965</v>
+        <v>0.9310595834402534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>999</v>
@@ -1071,19 +1071,19 @@
         <v>972190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>949439</v>
+        <v>947688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>993618</v>
+        <v>994245</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.904161351276983</v>
+        <v>0.9041613512769833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8830023293860246</v>
+        <v>0.8813745392435767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9240901149087652</v>
+        <v>0.9246733230202216</v>
       </c>
     </row>
     <row r="9">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7093</v>
+        <v>7036</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002620348723606009</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01340086842441531</v>
+        <v>0.01329362011201504</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3123</v>
+        <v>2688</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001083763223271115</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005720638722775988</v>
+        <v>0.004923776807353389</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7527</v>
+        <v>7924</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.001840186199037312</v>
+        <v>0.001840186199037313</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0070007128201981</v>
+        <v>0.007369135403803682</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>52596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37421</v>
+        <v>36574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74192</v>
+        <v>71820</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09936574555152548</v>
+        <v>0.09936574555152547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07069695663304454</v>
+        <v>0.06909645814385221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1401663107770129</v>
+        <v>0.1356853402386658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1192,19 +1192,19 @@
         <v>48475</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37520</v>
+        <v>37135</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63397</v>
+        <v>64385</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08879450043707975</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06872813935315736</v>
+        <v>0.06802228508443778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1161276373203131</v>
+        <v>0.1179371766661438</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -1213,19 +1213,19 @@
         <v>101071</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78878</v>
+        <v>79765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123616</v>
+        <v>126134</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09399846252397964</v>
+        <v>0.09399846252397967</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07335827849186687</v>
+        <v>0.07418319297286359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1149664635828616</v>
+        <v>0.1173079335139402</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>295754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>286771</v>
+        <v>286725</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301375</v>
+        <v>301750</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9507178577838152</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9218400857124472</v>
+        <v>0.9216945721091399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9687857922607284</v>
+        <v>0.969993301986653</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>493</v>
@@ -1338,19 +1338,19 @@
         <v>329297</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>320264</v>
+        <v>319923</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>336208</v>
+        <v>336034</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9256545966240969</v>
+        <v>0.9256545966240967</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9002630706234452</v>
+        <v>0.8993043248474959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9450805607141746</v>
+        <v>0.9445928784192503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>830</v>
@@ -1359,19 +1359,19 @@
         <v>625051</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>613074</v>
+        <v>613447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>634916</v>
+        <v>634443</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9373469287692974</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.919385225199319</v>
+        <v>0.9199456658506255</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9521408111667004</v>
+        <v>0.9514308285514529</v>
       </c>
     </row>
     <row r="13">
@@ -1435,19 +1435,19 @@
         <v>15331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9710</v>
+        <v>9335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24314</v>
+        <v>24360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04928214221618476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03121420773927172</v>
+        <v>0.0300066980133469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07815991428755245</v>
+        <v>0.07830542789086009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -1456,19 +1456,19 @@
         <v>26448</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19537</v>
+        <v>19711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35481</v>
+        <v>35822</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07434540337590334</v>
+        <v>0.07434540337590335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0549194392858255</v>
+        <v>0.05540712158074972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09973692937655508</v>
+        <v>0.1006956751525041</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1477,19 +1477,19 @@
         <v>41779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31914</v>
+        <v>32387</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53756</v>
+        <v>53383</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06265307123070257</v>
+        <v>0.06265307123070256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0478591888333</v>
+        <v>0.04856917144854711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08061477480068106</v>
+        <v>0.08005433414937461</v>
       </c>
     </row>
     <row r="15">
@@ -1581,19 +1581,19 @@
         <v>321732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>294752</v>
+        <v>296656</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>336632</v>
+        <v>337195</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.862217846621371</v>
+        <v>0.8622178466213709</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7899136654529358</v>
+        <v>0.7950155693190962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9021490576661645</v>
+        <v>0.9036577758672505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>494</v>
@@ -1602,19 +1602,19 @@
         <v>351974</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>335662</v>
+        <v>335690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>365300</v>
+        <v>364304</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8374196781132697</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7986093294308352</v>
+        <v>0.7986772920202574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8691247145014622</v>
+        <v>0.8667538902012555</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>746</v>
@@ -1623,19 +1623,19 @@
         <v>673706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>647164</v>
+        <v>645730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>695017</v>
+        <v>693960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8490817681181709</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8156295685189396</v>
+        <v>0.8138225860781083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8759402211038942</v>
+        <v>0.8746073790443073</v>
       </c>
     </row>
     <row r="17">
@@ -1652,19 +1652,19 @@
         <v>3471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9671</v>
+        <v>8347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009302266795751617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002958269447245957</v>
+        <v>0.002947411596779693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02591781345265994</v>
+        <v>0.02236804387050689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1673,19 +1673,19 @@
         <v>3634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1356</v>
+        <v>1306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7973</v>
+        <v>8298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008646090000800797</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003226220793041115</v>
+        <v>0.003108216654076817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01896887305756907</v>
+        <v>0.01974242688299147</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1694,19 +1694,19 @@
         <v>7105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3408</v>
+        <v>3806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13894</v>
+        <v>13716</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008954677017593754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004294527017782802</v>
+        <v>0.004797051047124425</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01751106811338896</v>
+        <v>0.0172867232297679</v>
       </c>
     </row>
     <row r="18">
@@ -1723,19 +1723,19 @@
         <v>47942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33210</v>
+        <v>32773</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74907</v>
+        <v>72860</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1284798865828774</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0890000288200648</v>
+        <v>0.08782790227919227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2007452825990771</v>
+        <v>0.1952592641000062</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -1744,19 +1744,19 @@
         <v>64700</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51751</v>
+        <v>51942</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81078</v>
+        <v>80553</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1539342318859294</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1231254030778646</v>
+        <v>0.1235819481194395</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1929007868882854</v>
+        <v>0.1916525066406657</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -1765,19 +1765,19 @@
         <v>112641</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92126</v>
+        <v>92298</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>139060</v>
+        <v>139822</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1419635548642355</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1161070987039638</v>
+        <v>0.1163238862464101</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1752588132596578</v>
+        <v>0.1762199568282826</v>
       </c>
     </row>
     <row r="19">
@@ -1869,19 +1869,19 @@
         <v>100670</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88363</v>
+        <v>88022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114158</v>
+        <v>113005</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4894858371876247</v>
+        <v>0.4894858371876248</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4296472194617589</v>
+        <v>0.4279859671702429</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5550683676542381</v>
+        <v>0.5494607670719971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>198</v>
@@ -1890,19 +1890,19 @@
         <v>93911</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82267</v>
+        <v>83473</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104086</v>
+        <v>105617</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4109686869575767</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3600130236385709</v>
+        <v>0.3652908770047375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4554959818517953</v>
+        <v>0.4621924799248879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>332</v>
@@ -1911,19 +1911,19 @@
         <v>194581</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>178859</v>
+        <v>179082</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213374</v>
+        <v>211427</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.448161375640627</v>
+        <v>0.4481613756406271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.411949621220464</v>
+        <v>0.4124640542254822</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4914441320568614</v>
+        <v>0.4869609228538375</v>
       </c>
     </row>
     <row r="21">
@@ -1940,19 +1940,19 @@
         <v>4266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1517</v>
+        <v>1339</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9746</v>
+        <v>9758</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02074325156241709</v>
+        <v>0.02074325156241708</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007377406034146499</v>
+        <v>0.006509678862041741</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0473879604474162</v>
+        <v>0.04744536349405908</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1961,19 +1961,19 @@
         <v>3460</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1622</v>
+        <v>1361</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6507</v>
+        <v>6534</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01514255275327594</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007099018532554516</v>
+        <v>0.005956950418904359</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02847582046585907</v>
+        <v>0.02859398041550702</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1982,19 +1982,19 @@
         <v>7726</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3989</v>
+        <v>4223</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13106</v>
+        <v>13656</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01779554062415005</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009188490825287651</v>
+        <v>0.009725890497571844</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03018556499454266</v>
+        <v>0.03145177271821369</v>
       </c>
     </row>
     <row r="22">
@@ -2011,19 +2011,19 @@
         <v>100729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87921</v>
+        <v>88257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112636</v>
+        <v>114062</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.489770911249958</v>
+        <v>0.4897709112499582</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4274984195946639</v>
+        <v>0.4291312233124944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5476694149673847</v>
+        <v>0.554601173359365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>288</v>
@@ -2032,19 +2032,19 @@
         <v>131140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120608</v>
+        <v>118664</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142429</v>
+        <v>141714</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5738887602891473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5277977568790032</v>
+        <v>0.5192918312513941</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6232867766003776</v>
+        <v>0.6201602802562107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>428</v>
@@ -2053,19 +2053,19 @@
         <v>231869</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>213914</v>
+        <v>215822</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248803</v>
+        <v>248117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5340430837352229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.492689596480053</v>
+        <v>0.4970824537303217</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.573043997572639</v>
+        <v>0.5714654921557609</v>
       </c>
     </row>
     <row r="23">
@@ -2157,19 +2157,19 @@
         <v>252808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>244564</v>
+        <v>244010</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>259017</v>
+        <v>259238</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9338808917736663</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9034256829227912</v>
+        <v>0.9013797198424048</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9568160168466271</v>
+        <v>0.9576319073655122</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>430</v>
@@ -2178,19 +2178,19 @@
         <v>246220</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>238854</v>
+        <v>238494</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>251606</v>
+        <v>252550</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9335359453827253</v>
+        <v>0.9335359453827249</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9056059081232867</v>
+        <v>0.9042438261485995</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9539545661143395</v>
+        <v>0.9575350592205967</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>776</v>
@@ -2199,19 +2199,19 @@
         <v>499028</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>487501</v>
+        <v>488197</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>506956</v>
+        <v>508314</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9337106635511113</v>
+        <v>0.9337106635511111</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9121418123238164</v>
+        <v>0.9134456967185267</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9485432560663242</v>
+        <v>0.9510846623591155</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>3023</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7033</v>
+        <v>6828</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01116801631840169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002836407606685355</v>
+        <v>0.003096336923519229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02598118146142301</v>
+        <v>0.02522232431692406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6213</v>
+        <v>7803</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.005377953801437769</v>
+        <v>0.005377953801437766</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02355625877954459</v>
+        <v>0.02958620527966705</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2270,19 +2270,19 @@
         <v>4442</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1621</v>
+        <v>1497</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10552</v>
+        <v>10352</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00831066782417147</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003032887441534398</v>
+        <v>0.002800661936848544</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01974327192745694</v>
+        <v>0.01936827266764379</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>14876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9613</v>
+        <v>8757</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23406</v>
+        <v>23235</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05495109190793196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03550932463810209</v>
+        <v>0.03234826385074161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08646161176835221</v>
+        <v>0.08583161897899742</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -2320,19 +2320,19 @@
         <v>16111</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11108</v>
+        <v>10277</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23463</v>
+        <v>23347</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06108610081583703</v>
+        <v>0.06108610081583701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04211626472680764</v>
+        <v>0.0389665112948524</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08895800372884195</v>
+        <v>0.08851996109787462</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -2341,19 +2341,19 @@
         <v>30987</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23507</v>
+        <v>22823</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41550</v>
+        <v>41262</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.05797866862471731</v>
+        <v>0.0579786686247173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04398245466110682</v>
+        <v>0.0427034575518374</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07774297827068093</v>
+        <v>0.07720273794633352</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>498579</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>468294</v>
+        <v>470250</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>528708</v>
+        <v>527273</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6956226944471408</v>
+        <v>0.6956226944471406</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6533688453013642</v>
+        <v>0.656099037084391</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7376597063888504</v>
+        <v>0.7356573808504017</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>725</v>
@@ -2466,19 +2466,19 @@
         <v>585959</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>562920</v>
+        <v>563168</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>607614</v>
+        <v>608058</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7644903562299107</v>
+        <v>0.7644903562299108</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7344317556671279</v>
+        <v>0.7347553294969047</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7927430888117657</v>
+        <v>0.793322820063077</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1146</v>
@@ -2487,19 +2487,19 @@
         <v>1084537</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1047821</v>
+        <v>1047890</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1119999</v>
+        <v>1119546</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7312111295407588</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7064564007591186</v>
+        <v>0.7065032009898314</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.755119959419046</v>
+        <v>0.7548142811484623</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>29426</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18908</v>
+        <v>18140</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45017</v>
+        <v>45918</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04105586994382195</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02638086112431001</v>
+        <v>0.02530889182934886</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06280804940106155</v>
+        <v>0.06406581187317591</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2537,19 +2537,19 @@
         <v>24418</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15880</v>
+        <v>16585</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36454</v>
+        <v>37021</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03185762851462142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02071855956694276</v>
+        <v>0.02163800750469692</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0475604643584942</v>
+        <v>0.04830031713144492</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>49</v>
@@ -2558,19 +2558,19 @@
         <v>53844</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>39548</v>
+        <v>40135</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>71643</v>
+        <v>72494</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0363025356559366</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02666378542639728</v>
+        <v>0.02705964129650625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04830260159340113</v>
+        <v>0.04887622526878325</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>188732</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>162668</v>
+        <v>162275</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>220692</v>
+        <v>218728</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2633214356090375</v>
+        <v>0.2633214356090374</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2269561492151868</v>
+        <v>0.2264083933122976</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3079127342989335</v>
+        <v>0.3051724026358176</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>201</v>
@@ -2608,19 +2608,19 @@
         <v>156093</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>136729</v>
+        <v>135871</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>176910</v>
+        <v>176818</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2036520152554678</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1783882979938201</v>
+        <v>0.177268659327004</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2308113441014646</v>
+        <v>0.2306908239911469</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>355</v>
@@ -2629,19 +2629,19 @@
         <v>344825</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>309802</v>
+        <v>309906</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>377463</v>
+        <v>379909</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2324863348033046</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2088731447368765</v>
+        <v>0.2089433290640546</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2544909935697901</v>
+        <v>0.2561405477969875</v>
       </c>
     </row>
     <row r="31">
@@ -2733,19 +2733,19 @@
         <v>745212</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>726196</v>
+        <v>727190</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>758387</v>
+        <v>759854</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.934992046453645</v>
+        <v>0.9349920464536449</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9111332642823612</v>
+        <v>0.9123808625442734</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9515227493396099</v>
+        <v>0.9533634299758591</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>967</v>
@@ -2754,19 +2754,19 @@
         <v>758646</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>743256</v>
+        <v>743625</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>771649</v>
+        <v>772484</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9153766595900745</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.896807736585528</v>
+        <v>0.8972522566161986</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9310658204132302</v>
+        <v>0.9320741824328836</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1681</v>
@@ -2775,19 +2775,19 @@
         <v>1503858</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1480281</v>
+        <v>1481279</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1521606</v>
+        <v>1523318</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9249927876180578</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9104913765393232</v>
+        <v>0.9111048053881682</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9359089874694854</v>
+        <v>0.936962548171499</v>
       </c>
     </row>
     <row r="33">
@@ -2804,19 +2804,19 @@
         <v>5524</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1790</v>
+        <v>2279</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12632</v>
+        <v>12805</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.006931097811676214</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002245505052956143</v>
+        <v>0.002859861687087965</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01584884881914047</v>
+        <v>0.01606596389991833</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>10</v>
@@ -2825,19 +2825,19 @@
         <v>7696</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3833</v>
+        <v>3610</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12943</v>
+        <v>13023</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.009285807939285495</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.004624988297988427</v>
+        <v>0.004355475805949233</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01561680221475451</v>
+        <v>0.0157132690405422</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>15</v>
@@ -2846,19 +2846,19 @@
         <v>13220</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>7776</v>
+        <v>7818</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>21951</v>
+        <v>22143</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.00813144915893777</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004783047080419489</v>
+        <v>0.004808843019141264</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01350151025876593</v>
+        <v>0.01361944361030192</v>
       </c>
     </row>
     <row r="34">
@@ -2875,19 +2875,19 @@
         <v>46289</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>33239</v>
+        <v>33017</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>63353</v>
+        <v>64007</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05807685573467897</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04170436082982682</v>
+        <v>0.04142477719536719</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07948643062807731</v>
+        <v>0.08030788179372213</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>81</v>
@@ -2896,19 +2896,19 @@
         <v>62438</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>50119</v>
+        <v>49457</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>77071</v>
+        <v>77862</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07533753247064003</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06047271025197326</v>
+        <v>0.05967500297525208</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09299352847874667</v>
+        <v>0.09394715280955583</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>123</v>
@@ -2917,19 +2917,19 @@
         <v>108727</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>91897</v>
+        <v>90180</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>130583</v>
+        <v>129911</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06687576322300441</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05652416666928869</v>
+        <v>0.05546805706291143</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08031908719989908</v>
+        <v>0.0799058917148586</v>
       </c>
     </row>
     <row r="35">
@@ -3021,19 +3021,19 @@
         <v>2992049</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2941290</v>
+        <v>2943213</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3039225</v>
+        <v>3038612</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8494054207372825</v>
+        <v>0.8494054207372826</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8349953531951758</v>
+        <v>0.8355413723873623</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8627979423539923</v>
+        <v>0.8626239658572936</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4483</v>
@@ -3042,19 +3042,19 @@
         <v>3169527</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3131802</v>
+        <v>3130313</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3210096</v>
+        <v>3207716</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8507537388591976</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8406276806522689</v>
+        <v>0.8402279572980356</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.861643088963576</v>
+        <v>0.8610041881643542</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7343</v>
@@ -3063,19 +3063,19 @@
         <v>6161577</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6092755</v>
+        <v>6104942</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6218347</v>
+        <v>6227823</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.8500984640631123</v>
+        <v>0.8500984640631124</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.840603266468588</v>
+        <v>0.8422847297069804</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8579309465735083</v>
+        <v>0.8592383064862065</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>47934</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>34811</v>
+        <v>34635</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>66711</v>
+        <v>65520</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01360775291807687</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009882468949823267</v>
+        <v>0.009832328272908246</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01893841741470511</v>
+        <v>0.01860042328050596</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -3113,19 +3113,19 @@
         <v>42091</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31667</v>
+        <v>31930</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>57841</v>
+        <v>56903</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01129781153060225</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.008499837378013294</v>
+        <v>0.008570577761949435</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01552539414029025</v>
+        <v>0.01527382406794407</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>96</v>
@@ -3134,19 +3134,19 @@
         <v>90024</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>70445</v>
+        <v>70258</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>113406</v>
+        <v>112187</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01242042966281028</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009719074972090637</v>
+        <v>0.009693318457536505</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01564634520760665</v>
+        <v>0.01547814657206611</v>
       </c>
     </row>
     <row r="38">
@@ -3163,19 +3163,19 @@
         <v>482539</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>437789</v>
+        <v>435728</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>529732</v>
+        <v>530884</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1369868263446406</v>
+        <v>0.1369868263446405</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.124282766536773</v>
+        <v>0.1236978411244491</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1503843750213619</v>
+        <v>0.1507112988832647</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>814</v>
@@ -3184,19 +3184,19 @@
         <v>513934</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>476829</v>
+        <v>479630</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>551101</v>
+        <v>555018</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1379484496102001</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1279889476781072</v>
+        <v>0.1287405746267332</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1479245795046733</v>
+        <v>0.1489760688035386</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1279</v>
@@ -3205,19 +3205,19 @@
         <v>996473</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>940753</v>
+        <v>940546</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1061311</v>
+        <v>1055359</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1374811062740774</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1297935086300394</v>
+        <v>0.1297649217425024</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1464266800192061</v>
+        <v>0.1456054436881759</v>
       </c>
     </row>
     <row r="39">
